--- a/2023-09-28 HBE1 EKAREN4 Cytokine Array/2023-09-28 HBE1 EKAREN4 Cytokine Array_platemap.xlsx
+++ b/2023-09-28 HBE1 EKAREN4 Cytokine Array/2023-09-28 HBE1 EKAREN4 Cytokine Array_platemap.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\albecklab.mcb.ucdavis.edu\Data\Databases\ImagingExperimentSheets\SPREADs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\imageData\SPREADs\2023-09-28 HBE1 EKAREN4 Cytokine Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B345A1B2-8C69-4242-B966-941963565E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9ADFE9-4C09-4F54-AA72-E382863A03F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="1780" windowWidth="21600" windowHeight="11390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,33 +310,18 @@
     <t>IFNy</t>
   </si>
   <si>
-    <t>Take 50uL of the above IFNy</t>
-  </si>
-  <si>
-    <t>Add 50uL imaging media</t>
-  </si>
-  <si>
-    <t>Take 50uL of the above TNFa</t>
-  </si>
-  <si>
     <t>take 10uL of the EGF to the left</t>
   </si>
   <si>
     <t>Add 90uL of imaging media</t>
   </si>
   <si>
-    <t>Take 50uL of the above IL6</t>
-  </si>
-  <si>
     <t>IL1B</t>
   </si>
   <si>
     <t>IL1b</t>
   </si>
   <si>
-    <t>Take 50uL of the above IL1b</t>
-  </si>
-  <si>
     <t>17mM Glucose, 0.5mM pyr, 2.5mM L-glut, 10ng/mL CT, HC, 5ug/mL INS, and 5ug/mL TF @-16hrs</t>
   </si>
   <si>
@@ -370,15 +355,9 @@
     <t>10ng/mL IFNy @16tp; 10ng/mL TNFa @16tp</t>
   </si>
   <si>
-    <t>20ng/mL IL6 @16tp</t>
-  </si>
-  <si>
     <t>10ng/mL IL4 @16tp; 10ng/mL IL5 @16tp; 10ng/mL IL13 @16tp</t>
   </si>
   <si>
-    <t>20ng/mL IFNy @16tp</t>
-  </si>
-  <si>
     <t>10ng/mL IL6 @16tp</t>
   </si>
   <si>
@@ -388,15 +367,9 @@
     <t>10ng/mL IFNy @16tp</t>
   </si>
   <si>
-    <t>20ng/mL IL1b @16tp</t>
-  </si>
-  <si>
     <t>10ng/mL IL17a @16tp; 10ng/mL IL23 @16tp</t>
   </si>
   <si>
-    <t>20ng/mL TNFa @16tp</t>
-  </si>
-  <si>
     <t>10ng/mL IL1b @16tp</t>
   </si>
   <si>
@@ -410,6 +383,33 @@
   </si>
   <si>
     <t>upstairs scope, cells in 200uL Imaging media, xy73 is background</t>
+  </si>
+  <si>
+    <t>1ng/mL IL6 @16tp</t>
+  </si>
+  <si>
+    <t>1ng/mL IL1b @16tp</t>
+  </si>
+  <si>
+    <t>1ng/mL IFNy @16tp</t>
+  </si>
+  <si>
+    <t>1ng/mL TNFa @16tp</t>
+  </si>
+  <si>
+    <t>Take 10uL of the above IL6</t>
+  </si>
+  <si>
+    <t>Add 90uL imaging media</t>
+  </si>
+  <si>
+    <t>Take 10uL of the above IFNy</t>
+  </si>
+  <si>
+    <t>Take 10uL of the above IL1b</t>
+  </si>
+  <si>
+    <t>Take 10uL of the above TNFa</t>
   </si>
 </sst>
 </file>
@@ -1376,29 +1376,29 @@
   </sheetPr>
   <dimension ref="A1:Q174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O157" sqref="O157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="17" width="14.28515625" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="19.26953125" style="1" customWidth="1"/>
+    <col min="2" max="17" width="14.26953125" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1494,23 +1494,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1518,12 +1518,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -1567,7 +1567,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
     </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="31">
         <v>1</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="31">
         <v>24</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="31">
         <v>25</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="31">
         <v>48</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="31">
         <v>49</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="31">
         <v>72</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="44">
         <v>73</v>
       </c>
@@ -1817,8 +1817,8 @@
       <c r="L31" s="25"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>1</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -1846,235 +1846,235 @@
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
     </row>
-    <row r="36" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M36" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M37" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M38" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L39" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M39" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L40" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="21" x14ac:dyDescent="0.3">
       <c r="B41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
@@ -2088,8 +2088,8 @@
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
     </row>
-    <row r="43" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
@@ -2117,235 +2117,235 @@
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
     </row>
-    <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M47" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M49" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L50" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M50" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L51" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L52" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M52" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -2359,8 +2359,8 @@
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
     </row>
-    <row r="54" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
         <v>12</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
@@ -2388,235 +2388,235 @@
       <c r="L57" s="28"/>
       <c r="M57" s="28"/>
     </row>
-    <row r="58" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L58" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M58" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L59" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M59" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L60" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M60" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L61" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M61" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L62" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M62" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L63" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M63" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
@@ -2630,8 +2630,8 @@
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
     </row>
-    <row r="65" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="6" t="s">
         <v>13</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
@@ -2659,235 +2659,235 @@
       <c r="L68" s="28"/>
       <c r="M68" s="28"/>
     </row>
-    <row r="69" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="J69" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="K69" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="L69" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="M69" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="L70" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="M70" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C71" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D71" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E71" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F69" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="G69" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="H69" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="I69" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="J69" s="37" t="s">
+      <c r="F71" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I71" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="J71" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="K71" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="L71" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="M71" s="76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="K69" s="37" t="s">
+      <c r="C72" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="L69" s="37" t="s">
+      <c r="D72" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="M69" s="37" t="s">
+      <c r="E72" s="35" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F70" s="34" t="s">
+      <c r="F72" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="H72" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L72" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="M72" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G70" s="34" t="s">
+      <c r="C73" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="H70" s="34" t="s">
+      <c r="D73" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="E73" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="J70" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K70" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L70" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="M70" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="36" t="s">
+      <c r="F73" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I73" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J73" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="K73" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="L73" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="M73" s="75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C74" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D74" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E74" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F71" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="G71" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H71" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="I71" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="J71" s="76" t="s">
+      <c r="F74" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I74" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="J74" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="K71" s="76" t="s">
+      <c r="K74" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="L71" s="76" t="s">
+      <c r="L74" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="M71" s="76" t="s">
+      <c r="M74" s="73" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="F72" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="G72" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="H72" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="I72" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="J72" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K72" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L72" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="M72" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="G73" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H73" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="I73" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="J73" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="K73" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="L73" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="M73" s="75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="H74" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I74" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="J74" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="K74" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="L74" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="M74" s="73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
@@ -2901,8 +2901,8 @@
       <c r="L75" s="26"/>
       <c r="M75" s="26"/>
     </row>
-    <row r="76" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="6" t="s">
         <v>14</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
@@ -2930,7 +2930,7 @@
       <c r="L79" s="27"/>
       <c r="M79" s="27"/>
     </row>
-    <row r="80" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
       <c r="D80" s="26"/>
@@ -2944,7 +2944,7 @@
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
     </row>
-    <row r="81" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
       <c r="D81" s="26"/>
@@ -2958,7 +2958,7 @@
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
     </row>
-    <row r="82" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
@@ -2972,7 +2972,7 @@
       <c r="L82" s="25"/>
       <c r="M82" s="25"/>
     </row>
-    <row r="83" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
       <c r="D83" s="26"/>
@@ -2986,7 +2986,7 @@
       <c r="L83" s="25"/>
       <c r="M83" s="25"/>
     </row>
-    <row r="84" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="26"/>
@@ -3000,7 +3000,7 @@
       <c r="L84" s="25"/>
       <c r="M84" s="25"/>
     </row>
-    <row r="85" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="26"/>
@@ -3014,7 +3014,7 @@
       <c r="L85" s="25"/>
       <c r="M85" s="25"/>
     </row>
-    <row r="86" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
@@ -3028,8 +3028,8 @@
       <c r="L86" s="27"/>
       <c r="M86" s="27"/>
     </row>
-    <row r="87" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
         <v>15</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -3057,7 +3057,7 @@
       <c r="L90" s="27"/>
       <c r="M90" s="27"/>
     </row>
-    <row r="91" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="26"/>
@@ -3071,7 +3071,7 @@
       <c r="L91" s="25"/>
       <c r="M91" s="27"/>
     </row>
-    <row r="92" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="26"/>
@@ -3085,7 +3085,7 @@
       <c r="L92" s="25"/>
       <c r="M92" s="27"/>
     </row>
-    <row r="93" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="26"/>
@@ -3099,7 +3099,7 @@
       <c r="L93" s="25"/>
       <c r="M93" s="27"/>
     </row>
-    <row r="94" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="26"/>
@@ -3113,7 +3113,7 @@
       <c r="L94" s="25"/>
       <c r="M94" s="27"/>
     </row>
-    <row r="95" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
       <c r="D95" s="26"/>
@@ -3127,7 +3127,7 @@
       <c r="L95" s="25"/>
       <c r="M95" s="27"/>
     </row>
-    <row r="96" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="26"/>
@@ -3141,7 +3141,7 @@
       <c r="L96" s="25"/>
       <c r="M96" s="27"/>
     </row>
-    <row r="97" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
@@ -3155,8 +3155,8 @@
       <c r="L97" s="27"/>
       <c r="M97" s="27"/>
     </row>
-    <row r="98" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>88</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
       <c r="D100" s="65"/>
@@ -3184,7 +3184,7 @@
       <c r="L100" s="66"/>
       <c r="M100" s="27"/>
     </row>
-    <row r="101" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="25"/>
       <c r="C101" s="63"/>
       <c r="D101" s="68"/>
@@ -3198,7 +3198,7 @@
       <c r="L101" s="68"/>
       <c r="M101" s="64"/>
     </row>
-    <row r="102" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="25"/>
       <c r="C102" s="63"/>
       <c r="D102" s="68"/>
@@ -3212,7 +3212,7 @@
       <c r="L102" s="69"/>
       <c r="M102" s="64"/>
     </row>
-    <row r="103" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="71"/>
@@ -3226,7 +3226,7 @@
       <c r="L103" s="67"/>
       <c r="M103" s="27"/>
     </row>
-    <row r="104" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="71"/>
@@ -3240,7 +3240,7 @@
       <c r="L104" s="25"/>
       <c r="M104" s="27"/>
     </row>
-    <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="70"/>
@@ -3254,7 +3254,7 @@
       <c r="L105" s="25"/>
       <c r="M105" s="27"/>
     </row>
-    <row r="106" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="68"/>
@@ -3268,7 +3268,7 @@
       <c r="L106" s="25"/>
       <c r="M106" s="27"/>
     </row>
-    <row r="107" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="27"/>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
@@ -3282,8 +3282,8 @@
       <c r="L107" s="27"/>
       <c r="M107" s="27"/>
     </row>
-    <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="6" t="s">
         <v>51</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="26" t="s">
         <v>55</v>
@@ -3308,7 +3308,7 @@
         <v>89</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G111" s="26"/>
       <c r="H111" s="27"/>
@@ -3320,10 +3320,10 @@
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C112" s="25"/>
       <c r="D112" s="26"/>
@@ -3341,10 +3341,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C113" s="25"/>
       <c r="D113" s="26"/>
@@ -3362,7 +3362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="26" t="s">
         <v>87</v>
@@ -3381,7 +3381,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="27"/>
       <c r="C115" s="25"/>
@@ -3398,7 +3398,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="27"/>
       <c r="C116" s="25"/>
@@ -3415,7 +3415,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="27"/>
       <c r="C117" s="25"/>
@@ -3432,7 +3432,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="27"/>
       <c r="C118" s="27"/>
@@ -3449,7 +3449,7 @@
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B121" s="9"/>
       <c r="C121" s="10" t="s">
         <v>68</v>
@@ -3470,7 +3470,7 @@
       <c r="M121" s="11"/>
       <c r="N121" s="60"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B122" s="13"/>
       <c r="C122" s="14">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B123" s="17"/>
       <c r="C123" s="14">
         <v>20</v>
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B124" s="17"/>
       <c r="C124" s="14">
         <f>C123*21</f>
@@ -3567,7 +3567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B125" s="13"/>
       <c r="C125" s="14">
         <v>100</v>
@@ -3592,7 +3592,7 @@
       <c r="M125" s="15"/>
       <c r="N125" s="61"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B126" s="13" t="s">
         <v>61</v>
       </c>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="N126" s="61"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B127" s="13" t="s">
         <v>63</v>
       </c>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="N127" s="61"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B128" s="13"/>
       <c r="C128" s="14"/>
       <c r="D128" s="15"/>
@@ -3665,7 +3665,7 @@
       <c r="M128" s="14"/>
       <c r="N128" s="61"/>
     </row>
-    <row r="129" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="22"/>
       <c r="C129" s="23" t="s">
@@ -3688,7 +3688,7 @@
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
     </row>
-    <row r="130" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B130" s="9"/>
       <c r="C130" s="10" t="s">
         <v>70</v>
@@ -3714,7 +3714,7 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
     </row>
-    <row r="131" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B131" s="13"/>
       <c r="C131" s="14">
         <v>5</v>
@@ -3752,7 +3752,7 @@
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
     </row>
-    <row r="132" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B132" s="13"/>
       <c r="C132" s="14">
         <v>20</v>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="J132" s="13"/>
       <c r="K132" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L132" s="15" t="s">
         <v>66</v>
@@ -3790,7 +3790,7 @@
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
     </row>
-    <row r="133" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B133" s="13"/>
       <c r="C133" s="14">
         <f>C132*21</f>
@@ -3819,7 +3819,7 @@
       <c r="J133" s="13"/>
       <c r="K133" s="14">
         <f>K132*21</f>
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="L133" s="15" t="s">
         <v>66</v>
@@ -3832,7 +3832,7 @@
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B134" s="13"/>
       <c r="C134" s="14">
         <v>100</v>
@@ -3851,7 +3851,7 @@
       <c r="I134" s="16"/>
       <c r="J134" s="13"/>
       <c r="K134" s="14">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L134" s="15" t="s">
         <v>84</v>
@@ -3862,7 +3862,7 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
     </row>
-    <row r="135" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B135" s="13" t="s">
         <v>61</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>61</v>
       </c>
       <c r="K135" s="18">
-        <v>2.52</v>
+        <v>1.68</v>
       </c>
       <c r="L135" s="15" t="s">
         <v>62</v>
@@ -3898,7 +3898,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
     </row>
-    <row r="136" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B136" s="13" t="s">
         <v>63</v>
       </c>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="K136" s="18">
         <f>K134-K135</f>
-        <v>147.47999999999999</v>
+        <v>198.32</v>
       </c>
       <c r="L136" s="15" t="s">
         <v>64</v>
@@ -3937,7 +3937,7 @@
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
     </row>
-    <row r="137" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B137" s="13"/>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
@@ -3955,7 +3955,7 @@
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
     </row>
-    <row r="138" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B138" s="21"/>
       <c r="C138" s="15" t="s">
         <v>65</v>
@@ -3979,7 +3979,7 @@
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
     </row>
-    <row r="139" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="55"/>
       <c r="B139" s="11"/>
       <c r="C139" s="10" t="s">
@@ -4004,7 +4004,7 @@
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
     </row>
-    <row r="140" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" s="52"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="J140" s="13"/>
       <c r="K140" s="14" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="L140" s="15"/>
       <c r="M140" s="16"/>
@@ -4037,7 +4037,7 @@
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
     </row>
-    <row r="141" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="50"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H141" s="15" t="s">
         <v>66</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="J141" s="13"/>
       <c r="K141" s="14" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="L141" s="15"/>
       <c r="M141" s="16"/>
@@ -4070,7 +4070,7 @@
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
     </row>
-    <row r="142" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" s="50"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14">
@@ -4086,7 +4086,7 @@
       <c r="F142" s="13"/>
       <c r="G142" s="14">
         <f>G141*21</f>
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="H142" s="15" t="s">
         <v>66</v>
@@ -4099,7 +4099,7 @@
       <c r="L142" s="15"/>
       <c r="M142" s="16"/>
     </row>
-    <row r="143" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="50"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14">
@@ -4111,7 +4111,7 @@
       <c r="E143" s="16"/>
       <c r="F143" s="13"/>
       <c r="G143" s="14">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H143" s="15" t="s">
         <v>84</v>
@@ -4122,7 +4122,7 @@
       <c r="L143" s="15"/>
       <c r="M143" s="16"/>
     </row>
-    <row r="144" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="17">
         <v>2.1</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>61</v>
       </c>
       <c r="G144" s="18">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="H144" s="15" t="s">
         <v>62</v>
@@ -4151,7 +4151,7 @@
       <c r="L144" s="15"/>
       <c r="M144" s="16"/>
     </row>
-    <row r="145" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="50"/>
       <c r="B145" s="14" t="s">
         <v>63</v>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="G145" s="18">
         <f>G143-G144</f>
-        <v>146.85</v>
+        <v>197.9</v>
       </c>
       <c r="H145" s="15" t="s">
         <v>64</v>
@@ -4180,7 +4180,7 @@
       <c r="L145" s="15"/>
       <c r="M145" s="16"/>
     </row>
-    <row r="146" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" s="50"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -4195,7 +4195,7 @@
       <c r="L146" s="14"/>
       <c r="M146" s="20"/>
     </row>
-    <row r="147" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" s="56"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23" t="s">
@@ -4218,7 +4218,7 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
     </row>
-    <row r="148" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="49"/>
       <c r="B148" s="11"/>
       <c r="C148" s="10" t="s">
@@ -4234,12 +4234,12 @@
       <c r="I148" s="12"/>
       <c r="J148" s="9"/>
       <c r="K148" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L148" s="11"/>
       <c r="M148" s="12"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="50"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F149" s="13"/>
       <c r="G149" s="14" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="H149" s="15"/>
       <c r="I149" s="16"/>
@@ -4268,7 +4268,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" s="50"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="F150" s="13"/>
       <c r="G150" s="14" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="H150" s="15"/>
       <c r="I150" s="16"/>
@@ -4297,7 +4297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" s="50"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14">
@@ -4326,7 +4326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" s="51"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14">
@@ -4342,14 +4342,14 @@
       <c r="I152" s="16"/>
       <c r="J152" s="13"/>
       <c r="K152" s="14">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L152" s="15" t="s">
         <v>84</v>
       </c>
       <c r="M152" s="16"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" s="58">
         <v>2.1</v>
       </c>
@@ -4373,14 +4373,14 @@
         <v>61</v>
       </c>
       <c r="K153" s="18">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="L153" s="15" t="s">
         <v>62</v>
       </c>
       <c r="M153" s="16"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="51"/>
       <c r="B154" s="14" t="s">
         <v>63</v>
@@ -4402,14 +4402,14 @@
       </c>
       <c r="K154" s="18">
         <f>K152-K153</f>
-        <v>146.85</v>
+        <v>197.9</v>
       </c>
       <c r="L154" s="15" t="s">
         <v>64</v>
       </c>
       <c r="M154" s="16"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" s="51"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -4424,7 +4424,7 @@
       <c r="L155" s="14"/>
       <c r="M155" s="20"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" s="59"/>
       <c r="B156" s="23"/>
       <c r="C156" s="23" t="s">
@@ -4443,7 +4443,7 @@
       <c r="L156" s="23"/>
       <c r="M156" s="24"/>
     </row>
-    <row r="157" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B157" s="57"/>
       <c r="C157" s="53" t="s">
         <v>76</v>
@@ -4458,12 +4458,12 @@
       <c r="I157" s="12"/>
       <c r="J157" s="9"/>
       <c r="K157" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L157" s="11"/>
       <c r="M157" s="12"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B158" s="13"/>
       <c r="C158" s="14">
         <v>20</v>
@@ -4486,12 +4486,12 @@
       </c>
       <c r="J158" s="13"/>
       <c r="K158" s="14" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="L158" s="15"/>
       <c r="M158" s="16"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B159" s="13"/>
       <c r="C159" s="14">
         <v>10</v>
@@ -4514,12 +4514,12 @@
       </c>
       <c r="J159" s="13"/>
       <c r="K159" s="14" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="L159" s="15"/>
       <c r="M159" s="16"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B160" s="13"/>
       <c r="C160" s="14">
         <f>C159*21</f>
@@ -4547,7 +4547,7 @@
       <c r="L160" s="15"/>
       <c r="M160" s="16"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B161" s="13"/>
       <c r="C161" s="14">
         <v>200</v>
@@ -4558,7 +4558,7 @@
       <c r="E161" s="16"/>
       <c r="F161" s="13"/>
       <c r="G161" s="14">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H161" s="15" t="s">
         <v>84</v>
@@ -4569,7 +4569,7 @@
       <c r="L161" s="15"/>
       <c r="M161" s="16"/>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B162" s="17">
         <v>2.1</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>61</v>
       </c>
       <c r="G162" s="18">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="H162" s="15" t="s">
         <v>62</v>
@@ -4595,7 +4595,7 @@
       <c r="L162" s="15"/>
       <c r="M162" s="16"/>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B163" s="13" t="s">
         <v>63</v>
       </c>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="G163" s="18">
         <f>G161-G162</f>
-        <v>146.85</v>
+        <v>197.9</v>
       </c>
       <c r="H163" s="15" t="s">
         <v>64</v>
@@ -4623,7 +4623,7 @@
       <c r="L163" s="15"/>
       <c r="M163" s="16"/>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B164" s="13"/>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
@@ -4637,7 +4637,7 @@
       <c r="L164" s="14"/>
       <c r="M164" s="20"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B165" s="22"/>
       <c r="C165" s="23" t="s">
         <v>65</v>
@@ -4655,7 +4655,7 @@
       <c r="L165" s="23"/>
       <c r="M165" s="24"/>
     </row>
-    <row r="166" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B166" s="9"/>
       <c r="C166" s="10" t="s">
         <v>67</v>
@@ -4675,7 +4675,7 @@
       <c r="L166" s="11"/>
       <c r="M166" s="12"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B167" s="13"/>
       <c r="C167" s="14">
         <v>100</v>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="F167" s="13"/>
       <c r="G167" s="14" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="H167" s="15"/>
       <c r="I167" s="16"/>
@@ -4697,7 +4697,7 @@
       <c r="L167" s="15"/>
       <c r="M167" s="16"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B168" s="13"/>
       <c r="C168" s="14">
         <v>10</v>
@@ -4710,18 +4710,18 @@
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="14" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="H168" s="15"/>
       <c r="I168" s="16"/>
       <c r="J168" s="13"/>
       <c r="K168" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L168" s="15"/>
       <c r="M168" s="16"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B169" s="13"/>
       <c r="C169" s="14">
         <f>C168*21</f>
@@ -4739,12 +4739,12 @@
       <c r="I169" s="16"/>
       <c r="J169" s="13"/>
       <c r="K169" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L169" s="15"/>
       <c r="M169" s="16"/>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B170" s="13"/>
       <c r="C170" s="14">
         <v>1000</v>
@@ -4762,7 +4762,7 @@
       <c r="L170" s="15"/>
       <c r="M170" s="16"/>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B171" s="13" t="s">
         <v>61</v>
       </c>
@@ -4782,7 +4782,7 @@
       <c r="L171" s="15"/>
       <c r="M171" s="16"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B172" s="13" t="s">
         <v>63</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="L172" s="15"/>
       <c r="M172" s="16"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B173" s="13"/>
       <c r="C173" s="14"/>
       <c r="D173" s="15"/>
@@ -4817,7 +4817,7 @@
       <c r="L173" s="15"/>
       <c r="M173" s="16"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B174" s="48"/>
       <c r="C174" s="23" t="s">
         <v>65</v>
